--- a/natmiOut/OldD7/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.349955778770605</v>
+        <v>0.496339</v>
       </c>
       <c r="H2">
-        <v>0.349955778770605</v>
+        <v>1.489017</v>
       </c>
       <c r="I2">
-        <v>0.3549859061270183</v>
+        <v>0.3416605937896955</v>
       </c>
       <c r="J2">
-        <v>0.3549859061270183</v>
+        <v>0.3416605937896955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.654256120439917</v>
+        <v>0.8480913333333334</v>
       </c>
       <c r="N2">
-        <v>0.654256120439917</v>
+        <v>2.544274</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9773546274332798</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9773546274332798</v>
       </c>
       <c r="Q2">
-        <v>0.2289607101439859</v>
+        <v>0.4209408042953334</v>
       </c>
       <c r="R2">
-        <v>0.2289607101439859</v>
+        <v>3.788467238658</v>
       </c>
       <c r="S2">
-        <v>0.3549859061270183</v>
+        <v>0.333923562351961</v>
       </c>
       <c r="T2">
-        <v>0.3549859061270183</v>
+        <v>0.333923562351961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.304955760480778</v>
+        <v>0.496339</v>
       </c>
       <c r="H3">
-        <v>0.304955760480778</v>
+        <v>1.489017</v>
       </c>
       <c r="I3">
-        <v>0.3093390751917938</v>
+        <v>0.3416605937896955</v>
       </c>
       <c r="J3">
-        <v>0.3093390751917938</v>
+        <v>0.3416605937896955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.654256120439917</v>
+        <v>0.01965033333333334</v>
       </c>
       <c r="N3">
-        <v>0.654256120439917</v>
+        <v>0.058951</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02264537256672013</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02264537256672013</v>
       </c>
       <c r="Q3">
-        <v>0.1995191727579584</v>
+        <v>0.009753226796333335</v>
       </c>
       <c r="R3">
-        <v>0.1995191727579584</v>
+        <v>0.08777904116700001</v>
       </c>
       <c r="S3">
-        <v>0.3093390751917938</v>
+        <v>0.007737031437734479</v>
       </c>
       <c r="T3">
-        <v>0.3093390751917938</v>
+        <v>0.00773703143773448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.330918525352327</v>
+        <v>0.324908</v>
       </c>
       <c r="H4">
-        <v>0.330918525352327</v>
+        <v>0.9747239999999999</v>
       </c>
       <c r="I4">
-        <v>0.3356750186811879</v>
+        <v>0.2236541158503006</v>
       </c>
       <c r="J4">
-        <v>0.3356750186811879</v>
+        <v>0.2236541158503007</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.654256120439917</v>
+        <v>0.8480913333333334</v>
       </c>
       <c r="N4">
-        <v>0.654256120439917</v>
+        <v>2.544274</v>
       </c>
       <c r="O4">
+        <v>0.9773546274332798</v>
+      </c>
+      <c r="P4">
+        <v>0.9773546274332798</v>
+      </c>
+      <c r="Q4">
+        <v>0.2755516589306667</v>
+      </c>
+      <c r="R4">
+        <v>2.479964930376</v>
+      </c>
+      <c r="S4">
+        <v>0.2185893850707902</v>
+      </c>
+      <c r="T4">
+        <v>0.2185893850707902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G5">
+        <v>0.324908</v>
+      </c>
+      <c r="H5">
+        <v>0.9747239999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.2236541158503006</v>
+      </c>
+      <c r="J5">
+        <v>0.2236541158503007</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.01965033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.058951</v>
+      </c>
+      <c r="O5">
+        <v>0.02264537256672013</v>
+      </c>
+      <c r="P5">
+        <v>0.02264537256672013</v>
+      </c>
+      <c r="Q5">
+        <v>0.006384550502666667</v>
+      </c>
+      <c r="R5">
+        <v>0.057460954524</v>
+      </c>
+      <c r="S5">
+        <v>0.005064730779510443</v>
+      </c>
+      <c r="T5">
+        <v>0.005064730779510444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2146276666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.643883</v>
+      </c>
+      <c r="I6">
+        <v>0.1477413945650657</v>
+      </c>
+      <c r="J6">
+        <v>0.1477413945650658</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0.2165054705787118</v>
-      </c>
-      <c r="R4">
-        <v>0.2165054705787118</v>
-      </c>
-      <c r="S4">
-        <v>0.3356750186811879</v>
-      </c>
-      <c r="T4">
-        <v>0.3356750186811879</v>
+      <c r="M6">
+        <v>0.8480913333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.544274</v>
+      </c>
+      <c r="O6">
+        <v>0.9773546274332798</v>
+      </c>
+      <c r="P6">
+        <v>0.9773546274332798</v>
+      </c>
+      <c r="Q6">
+        <v>0.1820238639935556</v>
+      </c>
+      <c r="R6">
+        <v>1.638214775942</v>
+      </c>
+      <c r="S6">
+        <v>0.144395735641613</v>
+      </c>
+      <c r="T6">
+        <v>0.144395735641613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2146276666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.643883</v>
+      </c>
+      <c r="I7">
+        <v>0.1477413945650657</v>
+      </c>
+      <c r="J7">
+        <v>0.1477413945650658</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.01965033333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.058951</v>
+      </c>
+      <c r="O7">
+        <v>0.02264537256672013</v>
+      </c>
+      <c r="P7">
+        <v>0.02264537256672013</v>
+      </c>
+      <c r="Q7">
+        <v>0.004217505192555556</v>
+      </c>
+      <c r="R7">
+        <v>0.037957546733</v>
+      </c>
+      <c r="S7">
+        <v>0.003345658923452714</v>
+      </c>
+      <c r="T7">
+        <v>0.003345658923452715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4168506666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.250552</v>
+      </c>
+      <c r="I8">
+        <v>0.286943895794938</v>
+      </c>
+      <c r="J8">
+        <v>0.2869438957949381</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.8480913333333334</v>
+      </c>
+      <c r="N8">
+        <v>2.544274</v>
+      </c>
+      <c r="O8">
+        <v>0.9773546274332798</v>
+      </c>
+      <c r="P8">
+        <v>0.9773546274332798</v>
+      </c>
+      <c r="Q8">
+        <v>0.3535274376942222</v>
+      </c>
+      <c r="R8">
+        <v>3.181746939248</v>
+      </c>
+      <c r="S8">
+        <v>0.2804459443689155</v>
+      </c>
+      <c r="T8">
+        <v>0.2804459443689156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4168506666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.250552</v>
+      </c>
+      <c r="I9">
+        <v>0.286943895794938</v>
+      </c>
+      <c r="J9">
+        <v>0.2869438957949381</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01965033333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.058951</v>
+      </c>
+      <c r="O9">
+        <v>0.02264537256672013</v>
+      </c>
+      <c r="P9">
+        <v>0.02264537256672013</v>
+      </c>
+      <c r="Q9">
+        <v>0.008191254550222222</v>
+      </c>
+      <c r="R9">
+        <v>0.073721290952</v>
+      </c>
+      <c r="S9">
+        <v>0.006497951426022487</v>
+      </c>
+      <c r="T9">
+        <v>0.006497951426022489</v>
       </c>
     </row>
   </sheetData>
